--- a/TNR_JDD/JDD.RT.NOM.xlsx
+++ b/TNR_JDD/JDD.RT.NOM.xlsx
@@ -12,15 +12,15 @@
   <definedNames/>
   <calcPr/>
   <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mil8RTp3Yi4+bljqBpzehjJfKCXJA=="/>
+    <ext uri="GoogleSheetsCustomDataVersion2">
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="be7sRst6VFggaZT4c4LUDxkK78UsTeT8gB94AwO0s40="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="83">
   <si>
     <t>Date</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t>Numéro d'ordre entre famille d'un même parent</t>
+  </si>
+  <si>
+    <t>démarre à 0</t>
   </si>
   <si>
     <t>NU_NIV</t>
@@ -1971,13 +1974,16 @@
       <c r="E7" s="13" t="s">
         <v>26</v>
       </c>
+      <c r="G7" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>24</v>
@@ -1991,13 +1997,13 @@
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="13" t="s">
         <v>26</v>
@@ -2005,10 +2011,10 @@
     </row>
     <row r="10" ht="12.75" customHeight="1">
       <c r="A10" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>31</v>
@@ -2022,13 +2028,13 @@
     </row>
     <row r="11" ht="12.75" customHeight="1">
       <c r="A11" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E11" s="13" t="s">
         <v>26</v>
@@ -2036,13 +2042,13 @@
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="13" t="s">
         <v>26</v>
@@ -2050,16 +2056,16 @@
     </row>
     <row r="13" ht="12.75" customHeight="1">
       <c r="A13" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E13" s="13" t="s">
         <v>26</v>
@@ -2067,13 +2073,13 @@
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>25</v>
@@ -2082,15 +2088,15 @@
         <v>26</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
       <c r="A15" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>24</v>
@@ -2101,13 +2107,13 @@
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E16" s="13" t="s">
         <v>26</v>
@@ -2115,13 +2121,13 @@
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="13" t="s">
         <v>26</v>
@@ -2129,13 +2135,13 @@
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D18" s="15" t="s">
         <v>25</v>
@@ -2144,18 +2150,18 @@
         <v>26</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19" s="15" t="s">
         <v>25</v>
@@ -2164,18 +2170,18 @@
         <v>26</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="15" t="s">
         <v>25</v>
@@ -2186,13 +2192,13 @@
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="12" t="s">
         <v>69</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="12" t="s">
-        <v>68</v>
       </c>
       <c r="D21" s="15" t="s">
         <v>25</v>
@@ -3226,46 +3232,46 @@
         <v>33</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="J1" s="18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" s="18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N1" s="18" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O1" s="18" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P1" s="18" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q1" s="18" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="R1" s="18" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="S1" s="18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="T1" s="18"/>
       <c r="U1" s="18"/>
@@ -3282,7 +3288,7 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="19"/>
       <c r="F2" s="19"/>
@@ -3291,7 +3297,7 @@
       <c r="I2" s="19"/>
       <c r="J2" s="19"/>
       <c r="K2" s="20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
@@ -3304,7 +3310,7 @@
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -3327,7 +3333,7 @@
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -3350,25 +3356,25 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="19"/>
       <c r="G5" s="19"/>
       <c r="H5" s="19"/>
       <c r="I5" s="19" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" s="19" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K5" s="19" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
@@ -3381,7 +3387,7 @@
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -4853,13 +4859,13 @@
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
       <c r="A1" s="23" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B1" s="24" t="s">
         <v>21</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" ht="12.75" customHeight="1"/>
@@ -5893,7 +5899,7 @@
     <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="16"/>
       <c r="B1" s="18" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C1" s="18"/>
       <c r="D1" s="18"/>
@@ -5928,25 +5934,25 @@
     </row>
     <row r="3">
       <c r="A3" s="19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="19"/>
     </row>
     <row r="4">
       <c r="A4" s="19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B4" s="19"/>
     </row>
     <row r="5">
       <c r="A5" s="19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B5" s="19"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="21" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" s="21"/>
     </row>
